--- a/Voelkenrath/concept_statistics_diffMCs.xlsx
+++ b/Voelkenrath/concept_statistics_diffMCs.xlsx
@@ -398,33 +398,96 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:AB10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:28">
       <c r="B1" s="1">
         <v>1</v>
       </c>
       <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1">
         <v>5</v>
       </c>
-      <c r="D1" s="1">
+      <c r="G1" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1">
         <v>10</v>
       </c>
-      <c r="E1" s="1">
+      <c r="L1" s="1">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1">
         <v>25</v>
       </c>
-      <c r="F1" s="1">
+      <c r="AA1" s="1">
         <v>50</v>
       </c>
-      <c r="G1" s="1">
+      <c r="AB1" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:28">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -432,22 +495,85 @@
         <v>100</v>
       </c>
       <c r="C2">
+        <v>85</v>
+      </c>
+      <c r="D2">
+        <v>68</v>
+      </c>
+      <c r="E2">
+        <v>60</v>
+      </c>
+      <c r="F2">
         <v>56</v>
       </c>
-      <c r="D2">
+      <c r="G2">
+        <v>54</v>
+      </c>
+      <c r="H2">
+        <v>49</v>
+      </c>
+      <c r="I2">
+        <v>45</v>
+      </c>
+      <c r="J2">
+        <v>43</v>
+      </c>
+      <c r="K2">
         <v>37</v>
       </c>
-      <c r="E2">
+      <c r="L2">
+        <v>37</v>
+      </c>
+      <c r="M2">
+        <v>32</v>
+      </c>
+      <c r="N2">
+        <v>29</v>
+      </c>
+      <c r="O2">
+        <v>29</v>
+      </c>
+      <c r="P2">
+        <v>29</v>
+      </c>
+      <c r="Q2">
+        <v>29</v>
+      </c>
+      <c r="R2">
+        <v>29</v>
+      </c>
+      <c r="S2">
+        <v>28</v>
+      </c>
+      <c r="T2">
+        <v>28</v>
+      </c>
+      <c r="U2">
+        <v>27</v>
+      </c>
+      <c r="V2">
+        <v>27</v>
+      </c>
+      <c r="W2">
+        <v>27</v>
+      </c>
+      <c r="X2">
+        <v>26</v>
+      </c>
+      <c r="Y2">
+        <v>26</v>
+      </c>
+      <c r="Z2">
         <v>25</v>
       </c>
-      <c r="F2">
+      <c r="AA2">
         <v>15</v>
       </c>
-      <c r="G2">
+      <c r="AB2">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:28">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -455,22 +581,85 @@
         <v>218</v>
       </c>
       <c r="C3">
+        <v>179</v>
+      </c>
+      <c r="D3">
+        <v>158</v>
+      </c>
+      <c r="E3">
+        <v>145</v>
+      </c>
+      <c r="F3">
         <v>130</v>
       </c>
-      <c r="D3">
+      <c r="G3">
+        <v>125</v>
+      </c>
+      <c r="H3">
+        <v>121</v>
+      </c>
+      <c r="I3">
+        <v>113</v>
+      </c>
+      <c r="J3">
+        <v>103</v>
+      </c>
+      <c r="K3">
         <v>97</v>
       </c>
-      <c r="E3">
+      <c r="L3">
+        <v>92</v>
+      </c>
+      <c r="M3">
+        <v>88</v>
+      </c>
+      <c r="N3">
+        <v>84</v>
+      </c>
+      <c r="O3">
+        <v>80</v>
+      </c>
+      <c r="P3">
+        <v>78</v>
+      </c>
+      <c r="Q3">
+        <v>76</v>
+      </c>
+      <c r="R3">
+        <v>74</v>
+      </c>
+      <c r="S3">
+        <v>72</v>
+      </c>
+      <c r="T3">
+        <v>71</v>
+      </c>
+      <c r="U3">
+        <v>70</v>
+      </c>
+      <c r="V3">
+        <v>69</v>
+      </c>
+      <c r="W3">
+        <v>68</v>
+      </c>
+      <c r="X3">
+        <v>65</v>
+      </c>
+      <c r="Y3">
+        <v>64</v>
+      </c>
+      <c r="Z3">
         <v>62</v>
       </c>
-      <c r="F3">
+      <c r="AA3">
         <v>42</v>
       </c>
-      <c r="G3">
+      <c r="AB3">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:28">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -478,22 +667,85 @@
         <v>107</v>
       </c>
       <c r="C4">
+        <v>65</v>
+      </c>
+      <c r="D4">
+        <v>52</v>
+      </c>
+      <c r="E4">
+        <v>47</v>
+      </c>
+      <c r="F4">
         <v>42</v>
       </c>
-      <c r="D4">
-        <v>27</v>
-      </c>
-      <c r="E4">
+      <c r="G4">
+        <v>37</v>
+      </c>
+      <c r="H4">
+        <v>32</v>
+      </c>
+      <c r="I4">
+        <v>31</v>
+      </c>
+      <c r="J4">
+        <v>30</v>
+      </c>
+      <c r="K4">
+        <v>27</v>
+      </c>
+      <c r="L4">
+        <v>27</v>
+      </c>
+      <c r="M4">
+        <v>27</v>
+      </c>
+      <c r="N4">
+        <v>27</v>
+      </c>
+      <c r="O4">
+        <v>27</v>
+      </c>
+      <c r="P4">
+        <v>27</v>
+      </c>
+      <c r="Q4">
+        <v>27</v>
+      </c>
+      <c r="R4">
+        <v>27</v>
+      </c>
+      <c r="S4">
+        <v>27</v>
+      </c>
+      <c r="T4">
+        <v>27</v>
+      </c>
+      <c r="U4">
+        <v>27</v>
+      </c>
+      <c r="V4">
+        <v>26</v>
+      </c>
+      <c r="W4">
+        <v>26</v>
+      </c>
+      <c r="X4">
+        <v>25</v>
+      </c>
+      <c r="Y4">
+        <v>24</v>
+      </c>
+      <c r="Z4">
         <v>23</v>
       </c>
-      <c r="F4">
+      <c r="AA4">
         <v>16</v>
       </c>
-      <c r="G4">
+      <c r="AB4">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:28">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -501,22 +753,85 @@
         <v>57</v>
       </c>
       <c r="C5">
+        <v>43</v>
+      </c>
+      <c r="D5">
+        <v>37</v>
+      </c>
+      <c r="E5">
+        <v>35</v>
+      </c>
+      <c r="F5">
         <v>30</v>
       </c>
-      <c r="D5">
+      <c r="G5">
+        <v>30</v>
+      </c>
+      <c r="H5">
+        <v>27</v>
+      </c>
+      <c r="I5">
+        <v>26</v>
+      </c>
+      <c r="J5">
+        <v>23</v>
+      </c>
+      <c r="K5">
         <v>21</v>
       </c>
-      <c r="E5">
+      <c r="L5">
+        <v>20</v>
+      </c>
+      <c r="M5">
+        <v>15</v>
+      </c>
+      <c r="N5">
+        <v>15</v>
+      </c>
+      <c r="O5">
+        <v>15</v>
+      </c>
+      <c r="P5">
+        <v>14</v>
+      </c>
+      <c r="Q5">
+        <v>14</v>
+      </c>
+      <c r="R5">
+        <v>14</v>
+      </c>
+      <c r="S5">
+        <v>14</v>
+      </c>
+      <c r="T5">
+        <v>14</v>
+      </c>
+      <c r="U5">
+        <v>13</v>
+      </c>
+      <c r="V5">
+        <v>13</v>
+      </c>
+      <c r="W5">
+        <v>13</v>
+      </c>
+      <c r="X5">
+        <v>12</v>
+      </c>
+      <c r="Y5">
         <v>9</v>
       </c>
-      <c r="F5">
+      <c r="Z5">
+        <v>9</v>
+      </c>
+      <c r="AA5">
         <v>7</v>
       </c>
-      <c r="G5">
+      <c r="AB5">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:28">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -524,22 +839,85 @@
         <v>935</v>
       </c>
       <c r="C6">
+        <v>685</v>
+      </c>
+      <c r="D6">
+        <v>554</v>
+      </c>
+      <c r="E6">
+        <v>493</v>
+      </c>
+      <c r="F6">
         <v>440</v>
       </c>
-      <c r="D6">
+      <c r="G6">
+        <v>401</v>
+      </c>
+      <c r="H6">
+        <v>375</v>
+      </c>
+      <c r="I6">
+        <v>345</v>
+      </c>
+      <c r="J6">
+        <v>323</v>
+      </c>
+      <c r="K6">
         <v>300</v>
       </c>
-      <c r="E6">
+      <c r="L6">
+        <v>287</v>
+      </c>
+      <c r="M6">
+        <v>275</v>
+      </c>
+      <c r="N6">
+        <v>261</v>
+      </c>
+      <c r="O6">
+        <v>253</v>
+      </c>
+      <c r="P6">
+        <v>238</v>
+      </c>
+      <c r="Q6">
+        <v>230</v>
+      </c>
+      <c r="R6">
+        <v>222</v>
+      </c>
+      <c r="S6">
+        <v>215</v>
+      </c>
+      <c r="T6">
+        <v>209</v>
+      </c>
+      <c r="U6">
+        <v>202</v>
+      </c>
+      <c r="V6">
+        <v>194</v>
+      </c>
+      <c r="W6">
+        <v>188</v>
+      </c>
+      <c r="X6">
+        <v>183</v>
+      </c>
+      <c r="Y6">
+        <v>177</v>
+      </c>
+      <c r="Z6">
         <v>172</v>
       </c>
-      <c r="F6">
+      <c r="AA6">
         <v>103</v>
       </c>
-      <c r="G6">
+      <c r="AB6">
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:28">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -547,22 +925,85 @@
         <v>37</v>
       </c>
       <c r="C7">
+        <v>36</v>
+      </c>
+      <c r="D7">
+        <v>32</v>
+      </c>
+      <c r="E7">
+        <v>30</v>
+      </c>
+      <c r="F7">
         <v>29</v>
       </c>
-      <c r="D7">
+      <c r="G7">
+        <v>28</v>
+      </c>
+      <c r="H7">
+        <v>27</v>
+      </c>
+      <c r="I7">
+        <v>27</v>
+      </c>
+      <c r="J7">
+        <v>25</v>
+      </c>
+      <c r="K7">
         <v>24</v>
       </c>
-      <c r="E7">
+      <c r="L7">
+        <v>24</v>
+      </c>
+      <c r="M7">
+        <v>23</v>
+      </c>
+      <c r="N7">
+        <v>23</v>
+      </c>
+      <c r="O7">
+        <v>23</v>
+      </c>
+      <c r="P7">
+        <v>23</v>
+      </c>
+      <c r="Q7">
+        <v>23</v>
+      </c>
+      <c r="R7">
+        <v>23</v>
+      </c>
+      <c r="S7">
+        <v>22</v>
+      </c>
+      <c r="T7">
+        <v>22</v>
+      </c>
+      <c r="U7">
         <v>21</v>
       </c>
-      <c r="F7">
+      <c r="V7">
+        <v>21</v>
+      </c>
+      <c r="W7">
+        <v>21</v>
+      </c>
+      <c r="X7">
+        <v>21</v>
+      </c>
+      <c r="Y7">
+        <v>21</v>
+      </c>
+      <c r="Z7">
+        <v>21</v>
+      </c>
+      <c r="AA7">
         <v>19</v>
       </c>
-      <c r="G7">
+      <c r="AB7">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:28">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -570,22 +1011,85 @@
         <v>365</v>
       </c>
       <c r="C8">
+        <v>279</v>
+      </c>
+      <c r="D8">
+        <v>237</v>
+      </c>
+      <c r="E8">
+        <v>211</v>
+      </c>
+      <c r="F8">
         <v>194</v>
       </c>
-      <c r="D8">
+      <c r="G8">
+        <v>183</v>
+      </c>
+      <c r="H8">
+        <v>173</v>
+      </c>
+      <c r="I8">
+        <v>160</v>
+      </c>
+      <c r="J8">
+        <v>155</v>
+      </c>
+      <c r="K8">
         <v>145</v>
       </c>
-      <c r="E8">
+      <c r="L8">
+        <v>140</v>
+      </c>
+      <c r="M8">
+        <v>133</v>
+      </c>
+      <c r="N8">
+        <v>129</v>
+      </c>
+      <c r="O8">
+        <v>128</v>
+      </c>
+      <c r="P8">
+        <v>123</v>
+      </c>
+      <c r="Q8">
+        <v>120</v>
+      </c>
+      <c r="R8">
+        <v>117</v>
+      </c>
+      <c r="S8">
+        <v>112</v>
+      </c>
+      <c r="T8">
+        <v>112</v>
+      </c>
+      <c r="U8">
+        <v>107</v>
+      </c>
+      <c r="V8">
+        <v>106</v>
+      </c>
+      <c r="W8">
+        <v>104</v>
+      </c>
+      <c r="X8">
+        <v>102</v>
+      </c>
+      <c r="Y8">
+        <v>96</v>
+      </c>
+      <c r="Z8">
         <v>94</v>
       </c>
-      <c r="F8">
+      <c r="AA8">
         <v>60</v>
       </c>
-      <c r="G8">
+      <c r="AB8">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:28">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -593,22 +1097,85 @@
         <v>1178</v>
       </c>
       <c r="C9">
+        <v>856</v>
+      </c>
+      <c r="D9">
+        <v>689</v>
+      </c>
+      <c r="E9">
+        <v>606</v>
+      </c>
+      <c r="F9">
         <v>537</v>
       </c>
-      <c r="D9">
+      <c r="G9">
+        <v>491</v>
+      </c>
+      <c r="H9">
+        <v>460</v>
+      </c>
+      <c r="I9">
+        <v>424</v>
+      </c>
+      <c r="J9">
+        <v>394</v>
+      </c>
+      <c r="K9">
         <v>364</v>
       </c>
-      <c r="E9">
+      <c r="L9">
+        <v>350</v>
+      </c>
+      <c r="M9">
+        <v>335</v>
+      </c>
+      <c r="N9">
+        <v>318</v>
+      </c>
+      <c r="O9">
+        <v>308</v>
+      </c>
+      <c r="P9">
+        <v>292</v>
+      </c>
+      <c r="Q9">
+        <v>282</v>
+      </c>
+      <c r="R9">
+        <v>274</v>
+      </c>
+      <c r="S9">
+        <v>264</v>
+      </c>
+      <c r="T9">
+        <v>258</v>
+      </c>
+      <c r="U9">
+        <v>250</v>
+      </c>
+      <c r="V9">
+        <v>241</v>
+      </c>
+      <c r="W9">
+        <v>235</v>
+      </c>
+      <c r="X9">
+        <v>228</v>
+      </c>
+      <c r="Y9">
+        <v>217</v>
+      </c>
+      <c r="Z9">
         <v>211</v>
       </c>
-      <c r="F9">
+      <c r="AA9">
         <v>125</v>
       </c>
-      <c r="G9">
+      <c r="AB9">
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:28">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -616,18 +1183,81 @@
         <v>4170</v>
       </c>
       <c r="C10">
+        <v>1879</v>
+      </c>
+      <c r="D10">
+        <v>1297</v>
+      </c>
+      <c r="E10">
+        <v>1027</v>
+      </c>
+      <c r="F10">
         <v>861</v>
       </c>
-      <c r="D10">
+      <c r="G10">
+        <v>765</v>
+      </c>
+      <c r="H10">
+        <v>694</v>
+      </c>
+      <c r="I10">
+        <v>633</v>
+      </c>
+      <c r="J10">
+        <v>578</v>
+      </c>
+      <c r="K10">
         <v>525</v>
       </c>
-      <c r="E10">
+      <c r="L10">
+        <v>495</v>
+      </c>
+      <c r="M10">
+        <v>471</v>
+      </c>
+      <c r="N10">
+        <v>443</v>
+      </c>
+      <c r="O10">
+        <v>422</v>
+      </c>
+      <c r="P10">
+        <v>404</v>
+      </c>
+      <c r="Q10">
+        <v>385</v>
+      </c>
+      <c r="R10">
+        <v>371</v>
+      </c>
+      <c r="S10">
+        <v>355</v>
+      </c>
+      <c r="T10">
+        <v>345</v>
+      </c>
+      <c r="U10">
+        <v>333</v>
+      </c>
+      <c r="V10">
+        <v>316</v>
+      </c>
+      <c r="W10">
+        <v>304</v>
+      </c>
+      <c r="X10">
+        <v>295</v>
+      </c>
+      <c r="Y10">
+        <v>282</v>
+      </c>
+      <c r="Z10">
         <v>276</v>
       </c>
-      <c r="F10">
+      <c r="AA10">
         <v>153</v>
       </c>
-      <c r="G10">
+      <c r="AB10">
         <v>74</v>
       </c>
     </row>
